--- a/UnityProject/Alter3/Assets/Alter3/Data/JointTable2.xlsx
+++ b/UnityProject/Alter3/Assets/Alter3/Data/JointTable2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yuki.shinobu\git\xflagstudio\alter3-simulator\UnityProject\Alter3\Assets\Alter3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\alter3-sumulator\UnityProject\Alter3\Assets\Alter3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2407C6-0EB8-4575-B9EA-4E49B12DAED5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119D29FC-6607-4313-97D1-96E71D24E5C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE98AF6A-C5E2-4869-AEAE-30F5124517B9}"/>
   </bookViews>
@@ -717,10 +717,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,8 +1040,8 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1057,47 +1057,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="H2" t="s">
         <v>117</v>
       </c>
@@ -1107,8 +1107,8 @@
       <c r="J2" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -1120,7 +1120,7 @@
       <c r="C3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E3" s="2">
@@ -1178,7 +1178,7 @@
       <c r="C5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E5" s="2">
@@ -1236,7 +1236,7 @@
       <c r="C7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E7" s="2">
@@ -1294,7 +1294,7 @@
       <c r="C9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E9" s="2">
@@ -1352,7 +1352,7 @@
       <c r="C11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E11" s="2">
@@ -1390,7 +1390,7 @@
       <c r="C12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E12" s="2">
@@ -1428,7 +1428,7 @@
       <c r="C13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E13" s="2">
@@ -1486,7 +1486,7 @@
       <c r="C15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E15" s="2">
@@ -1524,7 +1524,7 @@
       <c r="C16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E16" s="2">
@@ -1562,7 +1562,7 @@
       <c r="C17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E17" s="2">
@@ -1600,7 +1600,7 @@
       <c r="C18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E18" s="2">
@@ -1638,7 +1638,7 @@
       <c r="C19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E19" s="2">
@@ -1676,7 +1676,7 @@
       <c r="C20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E20" s="2">
@@ -1734,7 +1734,7 @@
       <c r="C22" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E22" s="2">
@@ -1772,7 +1772,7 @@
       <c r="C23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E23" s="2">
@@ -1810,7 +1810,7 @@
       <c r="C24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E24" s="2">
@@ -1848,7 +1848,7 @@
       <c r="C25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E25" s="2">
@@ -1886,7 +1886,7 @@
       <c r="C26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E26" s="2">
@@ -1924,7 +1924,7 @@
       <c r="C27" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E27" s="2">
@@ -1962,7 +1962,7 @@
       <c r="C28" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E28" s="2">
@@ -2000,7 +2000,7 @@
       <c r="C29" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E29" s="2">
@@ -2038,7 +2038,7 @@
       <c r="C30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="2">
@@ -2076,7 +2076,7 @@
       <c r="C31" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E31" s="2">
@@ -2114,7 +2114,7 @@
       <c r="C32" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="2">
@@ -2152,7 +2152,7 @@
       <c r="C33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="2">
@@ -2210,7 +2210,7 @@
       <c r="C35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E35" s="2">
@@ -2288,7 +2288,7 @@
       <c r="C38" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E38" s="2">
@@ -2366,7 +2366,7 @@
       <c r="C41" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E41" s="2">
@@ -2444,7 +2444,7 @@
       <c r="C44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E44" s="2">
@@ -2482,7 +2482,7 @@
       <c r="C45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E45" s="2">
@@ -2520,7 +2520,7 @@
       <c r="C46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E46" s="2">
@@ -2555,7 +2555,7 @@
       <c r="B47" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E47">
@@ -2593,7 +2593,7 @@
       <c r="C48" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E48" s="2">
@@ -2631,7 +2631,7 @@
       <c r="C49" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E49" s="2">
@@ -2669,7 +2669,7 @@
       <c r="C50" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E50" s="2">
@@ -2707,7 +2707,7 @@
       <c r="C51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E51" s="2">
@@ -2745,7 +2745,7 @@
       <c r="C52" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E52" s="2">
@@ -2783,7 +2783,7 @@
       <c r="C53" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E53" s="2">
@@ -2841,7 +2841,7 @@
       <c r="C55" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E55" s="2">
@@ -2919,7 +2919,7 @@
       <c r="C58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E58" s="2">
@@ -2997,7 +2997,7 @@
       <c r="C61" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E61" s="2">
@@ -3075,7 +3075,7 @@
       <c r="C64" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E64" s="2">
@@ -3133,7 +3133,7 @@
       <c r="C66" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E66" s="2">
@@ -3149,16 +3149,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>180</v>
+        <v>-20</v>
       </c>
       <c r="L66">
-        <v>-180</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
